--- a/statistics/HistoricalDistanceData/historical_distance/Q11689148-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q11689148-en.xlsx
@@ -37,30 +37,30 @@
     <t>Winter storm factor in fatal crash</t>
   </si>
   <si>
+    <t>Ice storm prompts emergency in Oklahoma</t>
+  </si>
+  <si>
+    <t>Central U.S. cleans up as more storms loom</t>
+  </si>
+  <si>
     <t>Snow, wind dump on Colorado</t>
   </si>
   <si>
-    <t>Central U.S. cleans up as more storms loom</t>
-  </si>
-  <si>
     <t>Storms kill, knock out power, cancel flights</t>
   </si>
   <si>
+    <t>NWS Springfield, MO Homepage</t>
+  </si>
+  <si>
     <t>Winter storm blamed for 51 deaths in nine states</t>
   </si>
   <si>
-    <t>Ice storm prompts emergency in Oklahoma</t>
+    <t>A rare snow day in Arizona</t>
   </si>
   <si>
     <t>OzarksFirst.com</t>
   </si>
   <si>
-    <t>A rare snow day in Arizona</t>
-  </si>
-  <si>
-    <t>NWS Springfield, MO Homepage</t>
-  </si>
-  <si>
     <t>Ice storm smacks roads, power lines</t>
   </si>
   <si>
@@ -85,28 +85,28 @@
     <t>https://web.archive.org/web/20070929082956/http://www.ottawasun.com/News/BreakingNews/2007/01/15/3383151.html</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20080111040510/http://www.cnn.com/2007/WEATHER/01/12/ice.storm/index.html?section=cnn_latest</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20070120155259/http://www.cnn.com/2007/WEATHER/01/18/winter.blast.ap/index.html</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20070123183528/http://www.cnn.com/2007/WEATHER/01/21/winter.weather.ap/index.html</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20070120155259/http://www.cnn.com/2007/WEATHER/01/18/winter.blast.ap/index.html</t>
-  </si>
-  <si>
     <t>https://web.archive.org/web/20070122122847/http://www.cnn.com/2007/WEATHER/01/14/winter.weather.ap/index.html</t>
   </si>
   <si>
+    <t>http://www.crh.noaa.gov/sgf/?n=icestormjan07summary%5E</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20070119054443/http://www.cnn.com/2007/WEATHER/01/16/winter.blast.ap/index.html</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20080111040510/http://www.cnn.com/2007/WEATHER/01/12/ice.storm/index.html?section=cnn_latest</t>
+    <t>https://web.archive.org/web/20070124185208/http://www.cnn.com/2007/WEATHER/01/22/winter.weather.ap/index.html</t>
   </si>
   <si>
     <t>https://web.archive.org/web/20070829010112/http://ozarksfirst.com/content/fulltext/?cid=4016</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20070124185208/http://www.cnn.com/2007/WEATHER/01/22/winter.weather.ap/index.html</t>
-  </si>
-  <si>
-    <t>http://www.crh.noaa.gov/sgf/?n=icestormjan07summary%5E</t>
   </si>
   <si>
     <t>https://web.archive.org/web/20070115180415/http://www.cnn.com/2007/WEATHER/01/13/ice.storm.ap/index.html</t>
